--- a/Code/Číselníky.xlsx
+++ b/Code/Číselníky.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3C33CF-A65E-4A5C-B95E-3E061C7481EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA966304-9B03-4389-9F62-471398ECD8BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{2FBDA2C7-5936-426B-B675-4482C1F8B095}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2FBDA2C7-5936-426B-B675-4482C1F8B095}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="číselník main" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>ČÍselník postav</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Vampire</t>
   </si>
@@ -62,9 +59,6 @@
     <t>everyone</t>
   </si>
   <si>
-    <t>Číselník typů itemů</t>
-  </si>
-  <si>
     <t>Poor</t>
   </si>
   <si>
@@ -87,6 +81,81 @@
   </si>
   <si>
     <t>Legendary</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Medium rare</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hard rare</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Evil</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>% chance</t>
+  </si>
+  <si>
+    <t>Postavy</t>
+  </si>
+  <si>
+    <t>Typy itemů</t>
+  </si>
+  <si>
+    <t>Obtížnosti misí</t>
+  </si>
+  <si>
+    <t>Well done</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>mapy</t>
+  </si>
+  <si>
+    <t>blue_window</t>
+  </si>
+  <si>
+    <t>orange_window</t>
+  </si>
+  <si>
+    <t>purple_window</t>
+  </si>
+  <si>
+    <t>green_window</t>
+  </si>
+  <si>
+    <t>yellow_window</t>
+  </si>
+  <si>
+    <t>red_window</t>
   </si>
 </sst>
 </file>
@@ -118,16 +187,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="238"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,14 +206,8 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -170,12 +231,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -190,16 +293,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -515,170 +626,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A43843-549C-4AC8-B0AC-6D029F24F9B3}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE57841-23B3-45E4-BBC0-91228225D55D}">
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="28" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
         <v>10</v>
       </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.63</v>
-      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="7"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.12</v>
-      </c>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
